--- a/biology/Botanique/Baffinellaceae/Baffinellaceae.xlsx
+++ b/biology/Botanique/Baffinellaceae/Baffinellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Baffinellaceae sont une famille d'algues de l'embranchement des Cryptista, de la classe des Cryptophyceae et de l’ordre des Cryptomonadales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Baffinella, nommé en référence à la baie de Baffin dans laquelle, en 1998, a été découvert cet organisme cryptophyte, lequel ne fut décrit que vingt ans plus tard[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Baffinella, nommé en référence à la baie de Baffin dans laquelle, en 1998, a été découvert cet organisme cryptophyte, lequel ne fut décrit que vingt ans plus tard. 
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,9 +612,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (26 août 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (26 août 2022) :
 Baffinella Norlin &amp; Daugbjerg, 2018</t>
         </is>
       </c>
@@ -625,9 +645,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Baffinellaceae Daugbjerg &amp; Norlin, 2018[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Baffinellaceae Daugbjerg &amp; Norlin, 2018.
 </t>
         </is>
       </c>
@@ -656,7 +678,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Daugbjerg, N., Norlin, A. &amp; Lovejoy, C. (2018). Baffinella frigidus gen. et sp. nov. (Baffinellaceae fam. nov., Cryptophyceae) from Baffin Bay: morphology, pigment profile, phylogeny, and growth rate response to three abiotic factors. Journal of Phycology 54(5):  665-680.</t>
         </is>
